--- a/추가피처데이터/투자자별매매동향(수급)/361610.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/361610.xlsx
@@ -1607,43 +1607,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1875,94 +1875,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>2807</v>
+        <v>239678</v>
       </c>
       <c r="C6" s="7">
-        <v>2562</v>
+        <v>217847</v>
       </c>
       <c r="D6" s="9">
-        <v>245</v>
+        <v>21831</v>
       </c>
       <c r="E6" s="11">
-        <v>4351</v>
+        <v>370418</v>
       </c>
       <c r="F6" s="13">
-        <v>5272</v>
+        <v>449918</v>
       </c>
       <c r="G6" s="15">
-        <v>-920</v>
+        <v>-79500</v>
       </c>
       <c r="H6" s="17">
-        <v>1447</v>
+        <v>123168</v>
       </c>
       <c r="I6" s="19">
-        <v>754</v>
+        <v>63982</v>
       </c>
       <c r="J6" s="21">
-        <v>693</v>
+        <v>59186</v>
       </c>
       <c r="K6" s="23">
-        <v>412</v>
+        <v>35054</v>
       </c>
       <c r="L6" s="25">
-        <v>287</v>
+        <v>24134</v>
       </c>
       <c r="M6" s="27">
-        <v>125</v>
+        <v>10920</v>
       </c>
       <c r="N6" s="29">
-        <v>108</v>
+        <v>9218</v>
       </c>
       <c r="O6" s="31">
-        <v>29</v>
+        <v>2462</v>
       </c>
       <c r="P6" s="33">
-        <v>78</v>
+        <v>6756</v>
       </c>
       <c r="Q6" s="35">
-        <v>215</v>
+        <v>18436</v>
       </c>
       <c r="R6" s="37">
-        <v>94</v>
+        <v>8069</v>
       </c>
       <c r="S6" s="39">
-        <v>121</v>
+        <v>10367</v>
       </c>
       <c r="T6" s="41">
-        <v>14</v>
+        <v>1264</v>
       </c>
       <c r="U6" s="43">
         <v>0</v>
       </c>
       <c r="V6" s="45">
-        <v>14</v>
+        <v>1264</v>
       </c>
       <c r="W6" s="47">
-        <v>3</v>
+        <v>258</v>
       </c>
       <c r="X6" s="49">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="Y6" s="51">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="Z6" s="53">
-        <v>483</v>
+        <v>41076</v>
       </c>
       <c r="AA6" s="55">
-        <v>148</v>
+        <v>12631</v>
       </c>
       <c r="AB6" s="57">
-        <v>335</v>
+        <v>28445</v>
       </c>
       <c r="AC6" s="59">
-        <v>212</v>
+        <v>17863</v>
       </c>
       <c r="AD6" s="61">
-        <v>193</v>
+        <v>16589</v>
       </c>
       <c r="AE6" s="63">
-        <v>19</v>
+        <v>1274</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>47</v>
+        <v>3953</v>
       </c>
       <c r="AJ6" s="73">
-        <v>64</v>
+        <v>5470</v>
       </c>
       <c r="AK6" s="75">
-        <v>-18</v>
+        <v>-1517</v>
       </c>
       <c r="AL6" s="77">
-        <v>8652</v>
+        <v>737217</v>
       </c>
     </row>
     <row r="7">
@@ -1991,94 +1991,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>5878</v>
+        <v>502338</v>
       </c>
       <c r="C7" s="7">
-        <v>5893</v>
+        <v>506217</v>
       </c>
       <c r="D7" s="9">
-        <v>-15</v>
+        <v>-3878</v>
       </c>
       <c r="E7" s="11">
-        <v>20657</v>
+        <v>1794021</v>
       </c>
       <c r="F7" s="13">
-        <v>20962</v>
+        <v>1817464</v>
       </c>
       <c r="G7" s="15">
-        <v>-304</v>
+        <v>-23443</v>
       </c>
       <c r="H7" s="17">
-        <v>2151</v>
+        <v>183974</v>
       </c>
       <c r="I7" s="19">
-        <v>1809</v>
+        <v>154592</v>
       </c>
       <c r="J7" s="21">
-        <v>342</v>
+        <v>29383</v>
       </c>
       <c r="K7" s="23">
-        <v>727</v>
+        <v>61772</v>
       </c>
       <c r="L7" s="25">
-        <v>588</v>
+        <v>50633</v>
       </c>
       <c r="M7" s="27">
-        <v>138</v>
+        <v>11139</v>
       </c>
       <c r="N7" s="29">
-        <v>143</v>
+        <v>12168</v>
       </c>
       <c r="O7" s="31">
-        <v>120</v>
+        <v>10135</v>
       </c>
       <c r="P7" s="33">
-        <v>22</v>
+        <v>2033</v>
       </c>
       <c r="Q7" s="35">
-        <v>312</v>
+        <v>26903</v>
       </c>
       <c r="R7" s="37">
-        <v>265</v>
+        <v>22610</v>
       </c>
       <c r="S7" s="39">
-        <v>47</v>
+        <v>4293</v>
       </c>
       <c r="T7" s="41">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="U7" s="43">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="V7" s="45">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="W7" s="47">
-        <v>4</v>
+        <v>333</v>
       </c>
       <c r="X7" s="49">
-        <v>27</v>
+        <v>2222</v>
       </c>
       <c r="Y7" s="51">
-        <v>-23</v>
+        <v>-1888</v>
       </c>
       <c r="Z7" s="53">
-        <v>626</v>
+        <v>53591</v>
       </c>
       <c r="AA7" s="55">
-        <v>509</v>
+        <v>43491</v>
       </c>
       <c r="AB7" s="57">
-        <v>117</v>
+        <v>10100</v>
       </c>
       <c r="AC7" s="59">
-        <v>336</v>
+        <v>28869</v>
       </c>
       <c r="AD7" s="61">
-        <v>297</v>
+        <v>25319</v>
       </c>
       <c r="AE7" s="63">
-        <v>39</v>
+        <v>3551</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2090,16 +2090,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>186</v>
+        <v>15891</v>
       </c>
       <c r="AJ7" s="73">
-        <v>208</v>
+        <v>17952</v>
       </c>
       <c r="AK7" s="75">
-        <v>-23</v>
+        <v>-2061</v>
       </c>
       <c r="AL7" s="77">
-        <v>28872</v>
+        <v>2496225</v>
       </c>
     </row>
     <row r="8">
@@ -2107,58 +2107,58 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>2884</v>
+        <v>192571</v>
       </c>
       <c r="C8" s="7">
-        <v>2711</v>
+        <v>178954</v>
       </c>
       <c r="D8" s="9">
-        <v>173</v>
+        <v>13618</v>
       </c>
       <c r="E8" s="11">
-        <v>6836</v>
+        <v>455853</v>
       </c>
       <c r="F8" s="13">
-        <v>6994</v>
+        <v>469412</v>
       </c>
       <c r="G8" s="15">
-        <v>-159</v>
+        <v>-13559</v>
       </c>
       <c r="H8" s="17">
-        <v>1149</v>
+        <v>76774</v>
       </c>
       <c r="I8" s="19">
-        <v>1146</v>
+        <v>75690</v>
       </c>
       <c r="J8" s="21">
-        <v>3</v>
+        <v>1084</v>
       </c>
       <c r="K8" s="23">
-        <v>462</v>
+        <v>30497</v>
       </c>
       <c r="L8" s="25">
-        <v>694</v>
+        <v>45926</v>
       </c>
       <c r="M8" s="27">
-        <v>-232</v>
+        <v>-15429</v>
       </c>
       <c r="N8" s="29">
-        <v>62</v>
+        <v>4171</v>
       </c>
       <c r="O8" s="31">
-        <v>12</v>
+        <v>813</v>
       </c>
       <c r="P8" s="33">
-        <v>49</v>
+        <v>3357</v>
       </c>
       <c r="Q8" s="35">
-        <v>142</v>
+        <v>9449</v>
       </c>
       <c r="R8" s="37">
-        <v>55</v>
+        <v>3614</v>
       </c>
       <c r="S8" s="39">
-        <v>87</v>
+        <v>5835</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
@@ -2170,31 +2170,31 @@
         <v>0</v>
       </c>
       <c r="W8" s="47">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="X8" s="49">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="Y8" s="51">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="Z8" s="53">
-        <v>283</v>
+        <v>19011</v>
       </c>
       <c r="AA8" s="55">
-        <v>140</v>
+        <v>9182</v>
       </c>
       <c r="AB8" s="57">
-        <v>143</v>
+        <v>9829</v>
       </c>
       <c r="AC8" s="59">
-        <v>197</v>
+        <v>13366</v>
       </c>
       <c r="AD8" s="61">
-        <v>245</v>
+        <v>16071</v>
       </c>
       <c r="AE8" s="63">
-        <v>-48</v>
+        <v>-2705</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2206,16 +2206,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>37</v>
+        <v>2474</v>
       </c>
       <c r="AJ8" s="73">
-        <v>54</v>
+        <v>3617</v>
       </c>
       <c r="AK8" s="75">
-        <v>-17</v>
+        <v>-1143</v>
       </c>
       <c r="AL8" s="77">
-        <v>10906</v>
+        <v>727672</v>
       </c>
     </row>
     <row r="9">
@@ -2223,58 +2223,58 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>2797</v>
+        <v>193048</v>
       </c>
       <c r="C9" s="7">
-        <v>3786</v>
+        <v>260435</v>
       </c>
       <c r="D9" s="9">
-        <v>-989</v>
+        <v>-67387</v>
       </c>
       <c r="E9" s="11">
-        <v>7263</v>
+        <v>498723</v>
       </c>
       <c r="F9" s="13">
-        <v>6112</v>
+        <v>421942</v>
       </c>
       <c r="G9" s="15">
-        <v>1151</v>
+        <v>76781</v>
       </c>
       <c r="H9" s="17">
-        <v>956</v>
+        <v>66967</v>
       </c>
       <c r="I9" s="19">
-        <v>1149</v>
+        <v>78553</v>
       </c>
       <c r="J9" s="21">
-        <v>-193</v>
+        <v>-11585</v>
       </c>
       <c r="K9" s="23">
-        <v>258</v>
+        <v>17638</v>
       </c>
       <c r="L9" s="25">
-        <v>399</v>
+        <v>27128</v>
       </c>
       <c r="M9" s="27">
-        <v>-141</v>
+        <v>-9490</v>
       </c>
       <c r="N9" s="29">
-        <v>30</v>
+        <v>2122</v>
       </c>
       <c r="O9" s="31">
-        <v>41</v>
+        <v>2742</v>
       </c>
       <c r="P9" s="33">
-        <v>-12</v>
+        <v>-620</v>
       </c>
       <c r="Q9" s="35">
-        <v>117</v>
+        <v>8329</v>
       </c>
       <c r="R9" s="37">
-        <v>90</v>
+        <v>6109</v>
       </c>
       <c r="S9" s="39">
-        <v>27</v>
+        <v>2219</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
@@ -2286,31 +2286,31 @@
         <v>0</v>
       </c>
       <c r="W9" s="47">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="X9" s="49">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y9" s="51">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="Z9" s="53">
-        <v>401</v>
+        <v>28234</v>
       </c>
       <c r="AA9" s="55">
-        <v>292</v>
+        <v>19765</v>
       </c>
       <c r="AB9" s="57">
-        <v>109</v>
+        <v>8470</v>
       </c>
       <c r="AC9" s="59">
-        <v>149</v>
+        <v>10585</v>
       </c>
       <c r="AD9" s="61">
-        <v>327</v>
+        <v>22790</v>
       </c>
       <c r="AE9" s="63">
-        <v>-178</v>
+        <v>-12205</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2322,16 +2322,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>86</v>
+        <v>5889</v>
       </c>
       <c r="AJ9" s="73">
-        <v>54</v>
+        <v>3697</v>
       </c>
       <c r="AK9" s="75">
-        <v>32</v>
+        <v>2191</v>
       </c>
       <c r="AL9" s="77">
-        <v>11101</v>
+        <v>764627</v>
       </c>
     </row>
     <row r="10">
@@ -2339,58 +2339,58 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>2778</v>
+        <v>173036</v>
       </c>
       <c r="C10" s="7">
-        <v>2160</v>
+        <v>134731</v>
       </c>
       <c r="D10" s="9">
-        <v>618</v>
+        <v>38305</v>
       </c>
       <c r="E10" s="11">
-        <v>3462</v>
+        <v>218623</v>
       </c>
       <c r="F10" s="13">
-        <v>4086</v>
+        <v>258512</v>
       </c>
       <c r="G10" s="15">
-        <v>-624</v>
+        <v>-39889</v>
       </c>
       <c r="H10" s="17">
-        <v>692</v>
+        <v>44083</v>
       </c>
       <c r="I10" s="19">
-        <v>681</v>
+        <v>42130</v>
       </c>
       <c r="J10" s="21">
-        <v>11</v>
+        <v>1953</v>
       </c>
       <c r="K10" s="23">
-        <v>262</v>
+        <v>16445</v>
       </c>
       <c r="L10" s="25">
-        <v>284</v>
+        <v>17510</v>
       </c>
       <c r="M10" s="27">
-        <v>-22</v>
+        <v>-1065</v>
       </c>
       <c r="N10" s="29">
-        <v>24</v>
+        <v>1479</v>
       </c>
       <c r="O10" s="31">
-        <v>12</v>
+        <v>783</v>
       </c>
       <c r="P10" s="33">
-        <v>11</v>
+        <v>697</v>
       </c>
       <c r="Q10" s="35">
-        <v>87</v>
+        <v>5460</v>
       </c>
       <c r="R10" s="37">
-        <v>123</v>
+        <v>7525</v>
       </c>
       <c r="S10" s="39">
-        <v>-36</v>
+        <v>-2065</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
@@ -2402,31 +2402,31 @@
         <v>0</v>
       </c>
       <c r="W10" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="51">
         <v>0</v>
       </c>
       <c r="Z10" s="53">
-        <v>262</v>
+        <v>17054</v>
       </c>
       <c r="AA10" s="55">
-        <v>186</v>
+        <v>11528</v>
       </c>
       <c r="AB10" s="57">
-        <v>76</v>
+        <v>5526</v>
       </c>
       <c r="AC10" s="59">
-        <v>58</v>
+        <v>3644</v>
       </c>
       <c r="AD10" s="61">
-        <v>77</v>
+        <v>4784</v>
       </c>
       <c r="AE10" s="63">
-        <v>-18</v>
+        <v>-1140</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2438,16 +2438,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>26</v>
+        <v>1683</v>
       </c>
       <c r="AJ10" s="73">
-        <v>31</v>
+        <v>2053</v>
       </c>
       <c r="AK10" s="75">
-        <v>-5</v>
+        <v>-370</v>
       </c>
       <c r="AL10" s="77">
-        <v>6959</v>
+        <v>437426</v>
       </c>
     </row>
     <row r="11">
@@ -2455,58 +2455,58 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>2005</v>
+        <v>122714</v>
       </c>
       <c r="C11" s="7">
-        <v>2037</v>
+        <v>124763</v>
       </c>
       <c r="D11" s="9">
-        <v>-32</v>
+        <v>-2049</v>
       </c>
       <c r="E11" s="11">
-        <v>3737</v>
+        <v>228957</v>
       </c>
       <c r="F11" s="13">
-        <v>3544</v>
+        <v>216923</v>
       </c>
       <c r="G11" s="15">
-        <v>193</v>
+        <v>12034</v>
       </c>
       <c r="H11" s="17">
-        <v>490</v>
+        <v>29908</v>
       </c>
       <c r="I11" s="19">
-        <v>659</v>
+        <v>40349</v>
       </c>
       <c r="J11" s="21">
-        <v>-168</v>
+        <v>-10441</v>
       </c>
       <c r="K11" s="23">
-        <v>226</v>
+        <v>13573</v>
       </c>
       <c r="L11" s="25">
-        <v>278</v>
+        <v>16856</v>
       </c>
       <c r="M11" s="27">
-        <v>-52</v>
+        <v>-3283</v>
       </c>
       <c r="N11" s="29">
-        <v>9</v>
+        <v>550</v>
       </c>
       <c r="O11" s="31">
-        <v>13</v>
+        <v>757</v>
       </c>
       <c r="P11" s="33">
-        <v>-4</v>
+        <v>-207</v>
       </c>
       <c r="Q11" s="35">
-        <v>96</v>
+        <v>5924</v>
       </c>
       <c r="R11" s="37">
-        <v>86</v>
+        <v>5194</v>
       </c>
       <c r="S11" s="39">
-        <v>11</v>
+        <v>729</v>
       </c>
       <c r="T11" s="41">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="W11" s="47">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X11" s="49">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="Y11" s="51">
-        <v>-1</v>
+        <v>-57</v>
       </c>
       <c r="Z11" s="53">
-        <v>106</v>
+        <v>6594</v>
       </c>
       <c r="AA11" s="55">
-        <v>245</v>
+        <v>15315</v>
       </c>
       <c r="AB11" s="57">
-        <v>-139</v>
+        <v>-8721</v>
       </c>
       <c r="AC11" s="59">
-        <v>52</v>
+        <v>3248</v>
       </c>
       <c r="AD11" s="61">
-        <v>36</v>
+        <v>2151</v>
       </c>
       <c r="AE11" s="63">
-        <v>17</v>
+        <v>1097</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>24</v>
+        <v>1483</v>
       </c>
       <c r="AJ11" s="73">
-        <v>17</v>
+        <v>1027</v>
       </c>
       <c r="AK11" s="75">
-        <v>8</v>
+        <v>456</v>
       </c>
       <c r="AL11" s="77">
-        <v>6256</v>
+        <v>383062</v>
       </c>
     </row>
     <row r="12">
@@ -2571,58 +2571,58 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>5045</v>
+        <v>309026</v>
       </c>
       <c r="C12" s="7">
-        <v>5862</v>
+        <v>356718</v>
       </c>
       <c r="D12" s="9">
-        <v>-817</v>
+        <v>-47693</v>
       </c>
       <c r="E12" s="11">
-        <v>10296</v>
+        <v>627786</v>
       </c>
       <c r="F12" s="13">
-        <v>9908</v>
+        <v>606324</v>
       </c>
       <c r="G12" s="15">
-        <v>387</v>
+        <v>21462</v>
       </c>
       <c r="H12" s="17">
-        <v>1524</v>
+        <v>92306</v>
       </c>
       <c r="I12" s="19">
-        <v>1122</v>
+        <v>67609</v>
       </c>
       <c r="J12" s="21">
-        <v>403</v>
+        <v>24698</v>
       </c>
       <c r="K12" s="23">
-        <v>564</v>
+        <v>34354</v>
       </c>
       <c r="L12" s="25">
-        <v>434</v>
+        <v>26262</v>
       </c>
       <c r="M12" s="27">
-        <v>130</v>
+        <v>8092</v>
       </c>
       <c r="N12" s="29">
-        <v>67</v>
+        <v>4031</v>
       </c>
       <c r="O12" s="31">
-        <v>52</v>
+        <v>3074</v>
       </c>
       <c r="P12" s="33">
-        <v>15</v>
+        <v>957</v>
       </c>
       <c r="Q12" s="35">
-        <v>274</v>
+        <v>16248</v>
       </c>
       <c r="R12" s="37">
-        <v>105</v>
+        <v>6183</v>
       </c>
       <c r="S12" s="39">
-        <v>169</v>
+        <v>10066</v>
       </c>
       <c r="T12" s="41">
         <v>0</v>
@@ -2634,31 +2634,31 @@
         <v>0</v>
       </c>
       <c r="W12" s="47">
-        <v>8</v>
+        <v>437</v>
       </c>
       <c r="X12" s="49">
-        <v>12</v>
+        <v>779</v>
       </c>
       <c r="Y12" s="51">
-        <v>-5</v>
+        <v>-342</v>
       </c>
       <c r="Z12" s="53">
-        <v>369</v>
+        <v>22514</v>
       </c>
       <c r="AA12" s="55">
-        <v>244</v>
+        <v>14961</v>
       </c>
       <c r="AB12" s="57">
-        <v>125</v>
+        <v>7553</v>
       </c>
       <c r="AC12" s="59">
-        <v>243</v>
+        <v>14722</v>
       </c>
       <c r="AD12" s="61">
-        <v>275</v>
+        <v>16351</v>
       </c>
       <c r="AE12" s="63">
-        <v>-32</v>
+        <v>-1629</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>139</v>
+        <v>8183</v>
       </c>
       <c r="AJ12" s="73">
-        <v>112</v>
+        <v>6650</v>
       </c>
       <c r="AK12" s="75">
-        <v>27</v>
+        <v>1533</v>
       </c>
       <c r="AL12" s="77">
-        <v>17004</v>
+        <v>1037302</v>
       </c>
     </row>
     <row r="13">
@@ -2687,94 +2687,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>4788</v>
+        <v>247022</v>
       </c>
       <c r="C13" s="7">
-        <v>5176</v>
+        <v>266128</v>
       </c>
       <c r="D13" s="9">
-        <v>-388</v>
+        <v>-19105</v>
       </c>
       <c r="E13" s="11">
-        <v>5563</v>
+        <v>285233</v>
       </c>
       <c r="F13" s="13">
-        <v>5011</v>
+        <v>257935</v>
       </c>
       <c r="G13" s="15">
-        <v>552</v>
+        <v>27298</v>
       </c>
       <c r="H13" s="17">
-        <v>711</v>
+        <v>36670</v>
       </c>
       <c r="I13" s="19">
-        <v>890</v>
+        <v>45600</v>
       </c>
       <c r="J13" s="21">
-        <v>-179</v>
+        <v>-8930</v>
       </c>
       <c r="K13" s="23">
-        <v>246</v>
+        <v>12691</v>
       </c>
       <c r="L13" s="25">
-        <v>271</v>
+        <v>13907</v>
       </c>
       <c r="M13" s="27">
-        <v>-25</v>
+        <v>-1215</v>
       </c>
       <c r="N13" s="29">
-        <v>33</v>
+        <v>1677</v>
       </c>
       <c r="O13" s="31">
-        <v>14</v>
+        <v>707</v>
       </c>
       <c r="P13" s="33">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Q13" s="35">
-        <v>46</v>
+        <v>2372</v>
       </c>
       <c r="R13" s="37">
-        <v>40</v>
+        <v>2061</v>
       </c>
       <c r="S13" s="39">
-        <v>6</v>
+        <v>311</v>
       </c>
       <c r="T13" s="41">
         <v>0</v>
       </c>
       <c r="U13" s="43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V13" s="45">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="W13" s="47">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="X13" s="49">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="Y13" s="51">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="Z13" s="53">
-        <v>238</v>
+        <v>12242</v>
       </c>
       <c r="AA13" s="55">
-        <v>450</v>
+        <v>22921</v>
       </c>
       <c r="AB13" s="57">
-        <v>-212</v>
+        <v>-10679</v>
       </c>
       <c r="AC13" s="59">
-        <v>144</v>
+        <v>7450</v>
       </c>
       <c r="AD13" s="61">
-        <v>114</v>
+        <v>5937</v>
       </c>
       <c r="AE13" s="63">
-        <v>30</v>
+        <v>1513</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2786,16 +2786,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>26</v>
+        <v>1310</v>
       </c>
       <c r="AJ13" s="73">
-        <v>11</v>
+        <v>573</v>
       </c>
       <c r="AK13" s="75">
-        <v>15</v>
+        <v>737</v>
       </c>
       <c r="AL13" s="77">
-        <v>11088</v>
+        <v>570236</v>
       </c>
     </row>
     <row r="14">
@@ -2803,94 +2803,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>3303</v>
+        <v>220426</v>
       </c>
       <c r="C14" s="7">
-        <v>4526</v>
+        <v>302612</v>
       </c>
       <c r="D14" s="9">
-        <v>-1223</v>
+        <v>-82186</v>
       </c>
       <c r="E14" s="11">
-        <v>5882</v>
+        <v>401781</v>
       </c>
       <c r="F14" s="13">
-        <v>4291</v>
+        <v>292034</v>
       </c>
       <c r="G14" s="15">
-        <v>1591</v>
+        <v>109747</v>
       </c>
       <c r="H14" s="17">
-        <v>679</v>
+        <v>46932</v>
       </c>
       <c r="I14" s="19">
-        <v>1102</v>
+        <v>78397</v>
       </c>
       <c r="J14" s="21">
-        <v>-423</v>
+        <v>-31464</v>
       </c>
       <c r="K14" s="23">
-        <v>295</v>
+        <v>20412</v>
       </c>
       <c r="L14" s="25">
-        <v>231</v>
+        <v>16370</v>
       </c>
       <c r="M14" s="27">
-        <v>64</v>
+        <v>4042</v>
       </c>
       <c r="N14" s="29">
-        <v>5</v>
+        <v>328</v>
       </c>
       <c r="O14" s="31">
-        <v>38</v>
+        <v>2723</v>
       </c>
       <c r="P14" s="33">
-        <v>-33</v>
+        <v>-2395</v>
       </c>
       <c r="Q14" s="35">
-        <v>53</v>
+        <v>3659</v>
       </c>
       <c r="R14" s="37">
+        <v>20884</v>
+      </c>
+      <c r="S14" s="39">
+        <v>-17225</v>
+      </c>
+      <c r="T14" s="41">
+        <v>70</v>
+      </c>
+      <c r="U14" s="43">
+        <v>274</v>
+      </c>
+      <c r="V14" s="45">
+        <v>-204</v>
+      </c>
+      <c r="W14" s="47">
+        <v>311</v>
+      </c>
+      <c r="X14" s="49">
         <v>285</v>
       </c>
-      <c r="S14" s="39">
-        <v>-233</v>
-      </c>
-      <c r="T14" s="41">
-        <v>1</v>
-      </c>
-      <c r="U14" s="43">
-        <v>4</v>
-      </c>
-      <c r="V14" s="45">
-        <v>-3</v>
-      </c>
-      <c r="W14" s="47">
-        <v>4</v>
-      </c>
-      <c r="X14" s="49">
-        <v>4</v>
-      </c>
       <c r="Y14" s="51">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z14" s="53">
-        <v>181</v>
+        <v>13049</v>
       </c>
       <c r="AA14" s="55">
-        <v>322</v>
+        <v>23081</v>
       </c>
       <c r="AB14" s="57">
-        <v>-140</v>
+        <v>-10032</v>
       </c>
       <c r="AC14" s="59">
-        <v>140</v>
+        <v>9103</v>
       </c>
       <c r="AD14" s="61">
-        <v>219</v>
+        <v>14780</v>
       </c>
       <c r="AE14" s="63">
-        <v>-79</v>
+        <v>-5677</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2902,16 +2902,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>77</v>
+        <v>5306</v>
       </c>
       <c r="AJ14" s="73">
-        <v>21</v>
+        <v>1402</v>
       </c>
       <c r="AK14" s="75">
-        <v>56</v>
+        <v>3904</v>
       </c>
       <c r="AL14" s="77">
-        <v>9939</v>
+        <v>674444</v>
       </c>
     </row>
     <row r="15">
@@ -2919,94 +2919,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>3041</v>
+        <v>265351</v>
       </c>
       <c r="C15" s="7">
-        <v>3282</v>
+        <v>287736</v>
       </c>
       <c r="D15" s="9">
-        <v>-241</v>
+        <v>-22385</v>
       </c>
       <c r="E15" s="11">
-        <v>5323</v>
+        <v>466149</v>
       </c>
       <c r="F15" s="13">
-        <v>5009</v>
+        <v>439688</v>
       </c>
       <c r="G15" s="15">
-        <v>314</v>
+        <v>26461</v>
       </c>
       <c r="H15" s="17">
-        <v>838</v>
+        <v>74430</v>
       </c>
       <c r="I15" s="19">
-        <v>935</v>
+        <v>80466</v>
       </c>
       <c r="J15" s="21">
-        <v>-97</v>
+        <v>-6036</v>
       </c>
       <c r="K15" s="23">
-        <v>227</v>
+        <v>20244</v>
       </c>
       <c r="L15" s="25">
-        <v>284</v>
+        <v>24805</v>
       </c>
       <c r="M15" s="27">
-        <v>-57</v>
+        <v>-4561</v>
       </c>
       <c r="N15" s="29">
-        <v>22</v>
+        <v>1994</v>
       </c>
       <c r="O15" s="31">
-        <v>14</v>
+        <v>1221</v>
       </c>
       <c r="P15" s="33">
-        <v>8</v>
+        <v>772</v>
       </c>
       <c r="Q15" s="35">
-        <v>142</v>
+        <v>12755</v>
       </c>
       <c r="R15" s="37">
-        <v>94</v>
+        <v>8004</v>
       </c>
       <c r="S15" s="39">
-        <v>48</v>
+        <v>4751</v>
       </c>
       <c r="T15" s="41">
         <v>0</v>
       </c>
       <c r="U15" s="43">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="V15" s="45">
-        <v>-3</v>
+        <v>-240</v>
       </c>
       <c r="W15" s="47">
-        <v>10</v>
+        <v>899</v>
       </c>
       <c r="X15" s="49">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y15" s="51">
-        <v>10</v>
+        <v>871</v>
       </c>
       <c r="Z15" s="53">
-        <v>248</v>
+        <v>21728</v>
       </c>
       <c r="AA15" s="55">
-        <v>215</v>
+        <v>18540</v>
       </c>
       <c r="AB15" s="57">
-        <v>32</v>
+        <v>3189</v>
       </c>
       <c r="AC15" s="59">
-        <v>188</v>
+        <v>16810</v>
       </c>
       <c r="AD15" s="61">
-        <v>324</v>
+        <v>27628</v>
       </c>
       <c r="AE15" s="63">
-        <v>-136</v>
+        <v>-10817</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3018,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>82</v>
+        <v>7054</v>
       </c>
       <c r="AJ15" s="73">
-        <v>58</v>
+        <v>5094</v>
       </c>
       <c r="AK15" s="75">
-        <v>24</v>
+        <v>1960</v>
       </c>
       <c r="AL15" s="77">
-        <v>9284</v>
+        <v>812984</v>
       </c>
     </row>
     <row r="16">
@@ -3035,94 +3035,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>6869</v>
+        <v>570676</v>
       </c>
       <c r="C16" s="7">
-        <v>5848</v>
+        <v>487006</v>
       </c>
       <c r="D16" s="9">
-        <v>1021</v>
+        <v>83670</v>
       </c>
       <c r="E16" s="11">
-        <v>7501</v>
+        <v>624611</v>
       </c>
       <c r="F16" s="13">
-        <v>5449</v>
+        <v>455678</v>
       </c>
       <c r="G16" s="15">
-        <v>2052</v>
+        <v>168933</v>
       </c>
       <c r="H16" s="17">
-        <v>1239</v>
+        <v>103056</v>
       </c>
       <c r="I16" s="19">
-        <v>4351</v>
+        <v>358948</v>
       </c>
       <c r="J16" s="21">
-        <v>-3112</v>
+        <v>-255892</v>
       </c>
       <c r="K16" s="23">
-        <v>254</v>
+        <v>21348</v>
       </c>
       <c r="L16" s="25">
-        <v>270</v>
+        <v>22750</v>
       </c>
       <c r="M16" s="27">
-        <v>-16</v>
+        <v>-1402</v>
       </c>
       <c r="N16" s="29">
-        <v>34</v>
+        <v>2872</v>
       </c>
       <c r="O16" s="31">
-        <v>33</v>
+        <v>2807</v>
       </c>
       <c r="P16" s="33">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="35">
-        <v>385</v>
+        <v>31920</v>
       </c>
       <c r="R16" s="37">
-        <v>131</v>
+        <v>11039</v>
       </c>
       <c r="S16" s="39">
-        <v>254</v>
+        <v>20882</v>
       </c>
       <c r="T16" s="41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U16" s="43">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V16" s="45">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="W16" s="47">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="X16" s="49">
-        <v>3452</v>
+        <v>283479</v>
       </c>
       <c r="Y16" s="51">
-        <v>-3448</v>
+        <v>-283184</v>
       </c>
       <c r="Z16" s="53">
-        <v>208</v>
+        <v>17173</v>
       </c>
       <c r="AA16" s="55">
-        <v>158</v>
+        <v>13282</v>
       </c>
       <c r="AB16" s="57">
-        <v>50</v>
+        <v>3891</v>
       </c>
       <c r="AC16" s="59">
-        <v>355</v>
+        <v>29443</v>
       </c>
       <c r="AD16" s="61">
-        <v>307</v>
+        <v>25565</v>
       </c>
       <c r="AE16" s="63">
-        <v>48</v>
+        <v>3877</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3134,16 +3134,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>91</v>
+        <v>7629</v>
       </c>
       <c r="AJ16" s="73">
-        <v>52</v>
+        <v>4340</v>
       </c>
       <c r="AK16" s="75">
-        <v>39</v>
+        <v>3289</v>
       </c>
       <c r="AL16" s="77">
-        <v>15699</v>
+        <v>1305971</v>
       </c>
     </row>
     <row r="17">
@@ -3151,94 +3151,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>1356</v>
+        <v>146551</v>
       </c>
       <c r="C17" s="7">
-        <v>1392</v>
+        <v>150927</v>
       </c>
       <c r="D17" s="9">
-        <v>-37</v>
+        <v>-4375</v>
       </c>
       <c r="E17" s="11">
-        <v>1930</v>
+        <v>209465</v>
       </c>
       <c r="F17" s="13">
-        <v>1804</v>
+        <v>194974</v>
       </c>
       <c r="G17" s="15">
-        <v>126</v>
+        <v>14491</v>
       </c>
       <c r="H17" s="17">
-        <v>670</v>
+        <v>73496</v>
       </c>
       <c r="I17" s="19">
-        <v>768</v>
+        <v>84499</v>
       </c>
       <c r="J17" s="21">
-        <v>-98</v>
+        <v>-11003</v>
       </c>
       <c r="K17" s="23">
-        <v>278</v>
+        <v>30148</v>
       </c>
       <c r="L17" s="25">
-        <v>186</v>
+        <v>20667</v>
       </c>
       <c r="M17" s="27">
-        <v>91</v>
+        <v>9480</v>
       </c>
       <c r="N17" s="29">
-        <v>13</v>
+        <v>1446</v>
       </c>
       <c r="O17" s="31">
-        <v>16</v>
+        <v>1698</v>
       </c>
       <c r="P17" s="33">
-        <v>-2</v>
+        <v>-253</v>
       </c>
       <c r="Q17" s="35">
-        <v>33</v>
+        <v>3528</v>
       </c>
       <c r="R17" s="37">
-        <v>248</v>
+        <v>27284</v>
       </c>
       <c r="S17" s="39">
-        <v>-216</v>
+        <v>-23756</v>
       </c>
       <c r="T17" s="41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U17" s="43">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="V17" s="45">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="W17" s="47">
         <v>0</v>
       </c>
       <c r="X17" s="49">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="Y17" s="51">
-        <v>-2</v>
+        <v>-261</v>
       </c>
       <c r="Z17" s="53">
-        <v>256</v>
+        <v>28696</v>
       </c>
       <c r="AA17" s="55">
-        <v>97</v>
+        <v>10678</v>
       </c>
       <c r="AB17" s="57">
-        <v>158</v>
+        <v>18018</v>
       </c>
       <c r="AC17" s="59">
-        <v>91</v>
+        <v>9671</v>
       </c>
       <c r="AD17" s="61">
-        <v>218</v>
+        <v>23892</v>
       </c>
       <c r="AE17" s="63">
-        <v>-127</v>
+        <v>-14221</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3250,16 +3250,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>23</v>
+        <v>2475</v>
       </c>
       <c r="AJ17" s="73">
-        <v>15</v>
+        <v>1587</v>
       </c>
       <c r="AK17" s="75">
-        <v>9</v>
+        <v>887</v>
       </c>
       <c r="AL17" s="77">
-        <v>3979</v>
+        <v>431987</v>
       </c>
     </row>
     <row r="18">
@@ -3267,94 +3267,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>1609</v>
+        <v>192328</v>
       </c>
       <c r="C18" s="7">
-        <v>1218</v>
+        <v>145325</v>
       </c>
       <c r="D18" s="9">
-        <v>391</v>
+        <v>47003</v>
       </c>
       <c r="E18" s="11">
-        <v>1808</v>
+        <v>214316</v>
       </c>
       <c r="F18" s="13">
-        <v>2140</v>
+        <v>254599</v>
       </c>
       <c r="G18" s="15">
-        <v>-331</v>
+        <v>-40283</v>
       </c>
       <c r="H18" s="17">
-        <v>526</v>
+        <v>62507</v>
       </c>
       <c r="I18" s="19">
-        <v>561</v>
+        <v>66280</v>
       </c>
       <c r="J18" s="21">
-        <v>-36</v>
+        <v>-3773</v>
       </c>
       <c r="K18" s="23">
-        <v>215</v>
+        <v>25477</v>
       </c>
       <c r="L18" s="25">
-        <v>227</v>
+        <v>27038</v>
       </c>
       <c r="M18" s="27">
-        <v>-12</v>
+        <v>-1561</v>
       </c>
       <c r="N18" s="29">
-        <v>12</v>
+        <v>1458</v>
       </c>
       <c r="O18" s="31">
-        <v>22</v>
+        <v>2571</v>
       </c>
       <c r="P18" s="33">
-        <v>-10</v>
+        <v>-1113</v>
       </c>
       <c r="Q18" s="35">
-        <v>52</v>
+        <v>6183</v>
       </c>
       <c r="R18" s="37">
-        <v>92</v>
+        <v>10680</v>
       </c>
       <c r="S18" s="39">
-        <v>-41</v>
+        <v>-4497</v>
       </c>
       <c r="T18" s="41">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U18" s="43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V18" s="45">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="W18" s="47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X18" s="49">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y18" s="51">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="Z18" s="53">
-        <v>175</v>
+        <v>20770</v>
       </c>
       <c r="AA18" s="55">
-        <v>106</v>
+        <v>12407</v>
       </c>
       <c r="AB18" s="57">
-        <v>69</v>
+        <v>8363</v>
       </c>
       <c r="AC18" s="59">
-        <v>71</v>
+        <v>8546</v>
       </c>
       <c r="AD18" s="61">
-        <v>114</v>
+        <v>13546</v>
       </c>
       <c r="AE18" s="63">
-        <v>-42</v>
+        <v>-5000</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3366,16 +3366,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>16</v>
+        <v>1893</v>
       </c>
       <c r="AJ18" s="73">
-        <v>41</v>
+        <v>4840</v>
       </c>
       <c r="AK18" s="75">
-        <v>-25</v>
+        <v>-2947</v>
       </c>
       <c r="AL18" s="77">
-        <v>3959</v>
+        <v>471044</v>
       </c>
     </row>
     <row r="19">
@@ -3383,94 +3383,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>1465</v>
+        <v>184872</v>
       </c>
       <c r="C19" s="7">
-        <v>1754</v>
+        <v>220908</v>
       </c>
       <c r="D19" s="9">
-        <v>-289</v>
+        <v>-36036</v>
       </c>
       <c r="E19" s="11">
-        <v>2953</v>
+        <v>371105</v>
       </c>
       <c r="F19" s="13">
-        <v>3029</v>
+        <v>382346</v>
       </c>
       <c r="G19" s="15">
-        <v>-76</v>
+        <v>-11241</v>
       </c>
       <c r="H19" s="17">
-        <v>918</v>
+        <v>116244</v>
       </c>
       <c r="I19" s="19">
-        <v>577</v>
+        <v>71883</v>
       </c>
       <c r="J19" s="21">
-        <v>342</v>
+        <v>44361</v>
       </c>
       <c r="K19" s="23">
-        <v>282</v>
+        <v>35544</v>
       </c>
       <c r="L19" s="25">
-        <v>247</v>
+        <v>30844</v>
       </c>
       <c r="M19" s="27">
-        <v>35</v>
+        <v>4700</v>
       </c>
       <c r="N19" s="29">
-        <v>28</v>
+        <v>3599</v>
       </c>
       <c r="O19" s="31">
-        <v>17</v>
+        <v>2166</v>
       </c>
       <c r="P19" s="33">
-        <v>11</v>
+        <v>1433</v>
       </c>
       <c r="Q19" s="35">
-        <v>169</v>
+        <v>21581</v>
       </c>
       <c r="R19" s="37">
-        <v>48</v>
+        <v>6054</v>
       </c>
       <c r="S19" s="39">
-        <v>121</v>
+        <v>15527</v>
       </c>
       <c r="T19" s="41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U19" s="43">
         <v>0</v>
       </c>
       <c r="V19" s="45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W19" s="47">
-        <v>18</v>
+        <v>2262</v>
       </c>
       <c r="X19" s="49">
-        <v>7</v>
+        <v>949</v>
       </c>
       <c r="Y19" s="51">
-        <v>10</v>
+        <v>1314</v>
       </c>
       <c r="Z19" s="53">
-        <v>251</v>
+        <v>31524</v>
       </c>
       <c r="AA19" s="55">
-        <v>105</v>
+        <v>13061</v>
       </c>
       <c r="AB19" s="57">
-        <v>145</v>
+        <v>18463</v>
       </c>
       <c r="AC19" s="59">
-        <v>171</v>
+        <v>21728</v>
       </c>
       <c r="AD19" s="61">
-        <v>151</v>
+        <v>18809</v>
       </c>
       <c r="AE19" s="63">
-        <v>19</v>
+        <v>2919</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3482,16 +3482,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>72</v>
+        <v>9081</v>
       </c>
       <c r="AJ19" s="73">
-        <v>49</v>
+        <v>6165</v>
       </c>
       <c r="AK19" s="75">
-        <v>23</v>
+        <v>2916</v>
       </c>
       <c r="AL19" s="77">
-        <v>5408</v>
+        <v>681302</v>
       </c>
     </row>
     <row r="20">
@@ -3499,58 +3499,58 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>2161</v>
+        <v>251965</v>
       </c>
       <c r="C20" s="7">
-        <v>2957</v>
+        <v>342549</v>
       </c>
       <c r="D20" s="9">
-        <v>-795</v>
+        <v>-90584</v>
       </c>
       <c r="E20" s="11">
-        <v>3185</v>
+        <v>373052</v>
       </c>
       <c r="F20" s="13">
-        <v>2637</v>
+        <v>311827</v>
       </c>
       <c r="G20" s="15">
-        <v>548</v>
+        <v>61225</v>
       </c>
       <c r="H20" s="17">
-        <v>681</v>
+        <v>80264</v>
       </c>
       <c r="I20" s="19">
-        <v>452</v>
+        <v>53080</v>
       </c>
       <c r="J20" s="21">
-        <v>229</v>
+        <v>27184</v>
       </c>
       <c r="K20" s="23">
-        <v>255</v>
+        <v>30070</v>
       </c>
       <c r="L20" s="25">
-        <v>177</v>
+        <v>21241</v>
       </c>
       <c r="M20" s="27">
-        <v>79</v>
+        <v>8829</v>
       </c>
       <c r="N20" s="29">
-        <v>25</v>
+        <v>2914</v>
       </c>
       <c r="O20" s="31">
-        <v>11</v>
+        <v>1240</v>
       </c>
       <c r="P20" s="33">
-        <v>14</v>
+        <v>1674</v>
       </c>
       <c r="Q20" s="35">
-        <v>49</v>
+        <v>5829</v>
       </c>
       <c r="R20" s="37">
-        <v>56</v>
+        <v>6381</v>
       </c>
       <c r="S20" s="39">
-        <v>-7</v>
+        <v>-552</v>
       </c>
       <c r="T20" s="41">
         <v>0</v>
@@ -3562,31 +3562,31 @@
         <v>0</v>
       </c>
       <c r="W20" s="47">
-        <v>8</v>
+        <v>931</v>
       </c>
       <c r="X20" s="49">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="Y20" s="51">
-        <v>8</v>
+        <v>891</v>
       </c>
       <c r="Z20" s="53">
-        <v>86</v>
+        <v>10379</v>
       </c>
       <c r="AA20" s="55">
-        <v>91</v>
+        <v>10558</v>
       </c>
       <c r="AB20" s="57">
-        <v>-5</v>
+        <v>-180</v>
       </c>
       <c r="AC20" s="59">
-        <v>257</v>
+        <v>30141</v>
       </c>
       <c r="AD20" s="61">
-        <v>116</v>
+        <v>13621</v>
       </c>
       <c r="AE20" s="63">
-        <v>141</v>
+        <v>16521</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3598,16 +3598,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>41</v>
+        <v>4755</v>
       </c>
       <c r="AJ20" s="73">
-        <v>22</v>
+        <v>2579</v>
       </c>
       <c r="AK20" s="75">
-        <v>19</v>
+        <v>2176</v>
       </c>
       <c r="AL20" s="77">
-        <v>6068</v>
+        <v>710036</v>
       </c>
     </row>
     <row r="21">
@@ -3615,94 +3615,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>4402</v>
+        <v>527828</v>
       </c>
       <c r="C21" s="7">
-        <v>4179</v>
+        <v>500027</v>
       </c>
       <c r="D21" s="9">
-        <v>223</v>
+        <v>27801</v>
       </c>
       <c r="E21" s="11">
-        <v>3470</v>
+        <v>410483</v>
       </c>
       <c r="F21" s="13">
-        <v>3522</v>
+        <v>420656</v>
       </c>
       <c r="G21" s="15">
-        <v>-53</v>
+        <v>-10173</v>
       </c>
       <c r="H21" s="17">
-        <v>733</v>
+        <v>88678</v>
       </c>
       <c r="I21" s="19">
-        <v>912</v>
+        <v>107289</v>
       </c>
       <c r="J21" s="21">
-        <v>-179</v>
+        <v>-18611</v>
       </c>
       <c r="K21" s="23">
-        <v>220</v>
+        <v>26525</v>
       </c>
       <c r="L21" s="25">
-        <v>175</v>
+        <v>21032</v>
       </c>
       <c r="M21" s="27">
-        <v>45</v>
+        <v>5493</v>
       </c>
       <c r="N21" s="29">
-        <v>10</v>
+        <v>1271</v>
       </c>
       <c r="O21" s="31">
-        <v>29</v>
+        <v>3432</v>
       </c>
       <c r="P21" s="33">
-        <v>-19</v>
+        <v>-2161</v>
       </c>
       <c r="Q21" s="35">
-        <v>80</v>
+        <v>9710</v>
       </c>
       <c r="R21" s="37">
-        <v>76</v>
+        <v>8913</v>
       </c>
       <c r="S21" s="39">
-        <v>3</v>
+        <v>797</v>
       </c>
       <c r="T21" s="41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U21" s="43">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V21" s="45">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="W21" s="47">
         <v>0</v>
       </c>
       <c r="X21" s="49">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="Y21" s="51">
-        <v>-1</v>
+        <v>-67</v>
       </c>
       <c r="Z21" s="53">
-        <v>161</v>
+        <v>19271</v>
       </c>
       <c r="AA21" s="55">
-        <v>240</v>
+        <v>28200</v>
       </c>
       <c r="AB21" s="57">
-        <v>-78</v>
+        <v>-8929</v>
       </c>
       <c r="AC21" s="59">
-        <v>262</v>
+        <v>31893</v>
       </c>
       <c r="AD21" s="61">
-        <v>391</v>
+        <v>45622</v>
       </c>
       <c r="AE21" s="63">
-        <v>-129</v>
+        <v>-13729</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>36</v>
+        <v>4237</v>
       </c>
       <c r="AJ21" s="73">
-        <v>27</v>
+        <v>3254</v>
       </c>
       <c r="AK21" s="75">
-        <v>9</v>
+        <v>983</v>
       </c>
       <c r="AL21" s="77">
-        <v>8640</v>
+        <v>1031225</v>
       </c>
     </row>
     <row r="22">
@@ -3731,94 +3731,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>2546</v>
+        <v>352065</v>
       </c>
       <c r="C22" s="7">
-        <v>3294</v>
+        <v>454591</v>
       </c>
       <c r="D22" s="9">
-        <v>-748</v>
+        <v>-102526</v>
       </c>
       <c r="E22" s="11">
-        <v>5160</v>
+        <v>724991</v>
       </c>
       <c r="F22" s="13">
-        <v>3609</v>
+        <v>508319</v>
       </c>
       <c r="G22" s="15">
-        <v>1551</v>
+        <v>216672</v>
       </c>
       <c r="H22" s="17">
-        <v>549</v>
+        <v>79096</v>
       </c>
       <c r="I22" s="19">
-        <v>1390</v>
+        <v>198471</v>
       </c>
       <c r="J22" s="21">
-        <v>-841</v>
+        <v>-119375</v>
       </c>
       <c r="K22" s="23">
-        <v>214</v>
+        <v>30891</v>
       </c>
       <c r="L22" s="25">
-        <v>226</v>
+        <v>33149</v>
       </c>
       <c r="M22" s="27">
-        <v>-12</v>
+        <v>-2258</v>
       </c>
       <c r="N22" s="29">
-        <v>18</v>
+        <v>2674</v>
       </c>
       <c r="O22" s="31">
-        <v>91</v>
+        <v>12971</v>
       </c>
       <c r="P22" s="33">
-        <v>-72</v>
+        <v>-10298</v>
       </c>
       <c r="Q22" s="35">
-        <v>85</v>
+        <v>12628</v>
       </c>
       <c r="R22" s="37">
-        <v>169</v>
+        <v>23394</v>
       </c>
       <c r="S22" s="39">
-        <v>-84</v>
+        <v>-10766</v>
       </c>
       <c r="T22" s="41">
         <v>0</v>
       </c>
       <c r="U22" s="43">
-        <v>3</v>
+        <v>422</v>
       </c>
       <c r="V22" s="45">
-        <v>-3</v>
+        <v>-422</v>
       </c>
       <c r="W22" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X22" s="49">
-        <v>13</v>
+        <v>1913</v>
       </c>
       <c r="Y22" s="51">
-        <v>-13</v>
+        <v>-1909</v>
       </c>
       <c r="Z22" s="53">
-        <v>146</v>
+        <v>21887</v>
       </c>
       <c r="AA22" s="55">
-        <v>430</v>
+        <v>60118</v>
       </c>
       <c r="AB22" s="57">
-        <v>-284</v>
+        <v>-38231</v>
       </c>
       <c r="AC22" s="59">
-        <v>86</v>
+        <v>11011</v>
       </c>
       <c r="AD22" s="61">
-        <v>458</v>
+        <v>66503</v>
       </c>
       <c r="AE22" s="63">
-        <v>-372</v>
+        <v>-55492</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3830,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>69</v>
+        <v>9720</v>
       </c>
       <c r="AJ22" s="73">
-        <v>31</v>
+        <v>4492</v>
       </c>
       <c r="AK22" s="75">
-        <v>39</v>
+        <v>5229</v>
       </c>
       <c r="AL22" s="77">
-        <v>8324</v>
+        <v>1165872</v>
       </c>
     </row>
     <row r="23">
@@ -3847,94 +3847,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>3211</v>
+        <v>540763</v>
       </c>
       <c r="C23" s="7">
-        <v>3222</v>
+        <v>543633</v>
       </c>
       <c r="D23" s="9">
-        <v>-11</v>
+        <v>-2870</v>
       </c>
       <c r="E23" s="11">
-        <v>3628</v>
+        <v>601235</v>
       </c>
       <c r="F23" s="13">
-        <v>4218</v>
+        <v>703469</v>
       </c>
       <c r="G23" s="15">
-        <v>-590</v>
+        <v>-102234</v>
       </c>
       <c r="H23" s="17">
-        <v>1613</v>
+        <v>272965</v>
       </c>
       <c r="I23" s="19">
-        <v>981</v>
+        <v>162649</v>
       </c>
       <c r="J23" s="21">
-        <v>632</v>
+        <v>110316</v>
       </c>
       <c r="K23" s="23">
-        <v>310</v>
+        <v>51458</v>
       </c>
       <c r="L23" s="25">
-        <v>284</v>
+        <v>47574</v>
       </c>
       <c r="M23" s="27">
-        <v>26</v>
+        <v>3884</v>
       </c>
       <c r="N23" s="29">
-        <v>121</v>
+        <v>20475</v>
       </c>
       <c r="O23" s="31">
-        <v>94</v>
+        <v>15873</v>
       </c>
       <c r="P23" s="33">
-        <v>27</v>
+        <v>4602</v>
       </c>
       <c r="Q23" s="35">
-        <v>423</v>
+        <v>72580</v>
       </c>
       <c r="R23" s="37">
-        <v>147</v>
+        <v>24332</v>
       </c>
       <c r="S23" s="39">
-        <v>276</v>
+        <v>48249</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
       </c>
       <c r="U23" s="43">
-        <v>2</v>
+        <v>357</v>
       </c>
       <c r="V23" s="45">
-        <v>-2</v>
+        <v>-357</v>
       </c>
       <c r="W23" s="47">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="X23" s="49">
-        <v>5</v>
+        <v>820</v>
       </c>
       <c r="Y23" s="51">
-        <v>-5</v>
+        <v>-776</v>
       </c>
       <c r="Z23" s="53">
-        <v>700</v>
+        <v>118300</v>
       </c>
       <c r="AA23" s="55">
-        <v>296</v>
+        <v>48348</v>
       </c>
       <c r="AB23" s="57">
-        <v>404</v>
+        <v>69952</v>
       </c>
       <c r="AC23" s="59">
-        <v>59</v>
+        <v>10107</v>
       </c>
       <c r="AD23" s="61">
-        <v>153</v>
+        <v>25346</v>
       </c>
       <c r="AE23" s="63">
-        <v>-94</v>
+        <v>-15238</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>24</v>
+        <v>3913</v>
       </c>
       <c r="AJ23" s="73">
-        <v>54</v>
+        <v>9125</v>
       </c>
       <c r="AK23" s="75">
-        <v>-31</v>
+        <v>-5212</v>
       </c>
       <c r="AL23" s="77">
-        <v>8476</v>
+        <v>1418875</v>
       </c>
     </row>
     <row r="24">
@@ -3963,94 +3963,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>7778</v>
+        <v>1269261</v>
       </c>
       <c r="C24" s="7">
-        <v>6400</v>
+        <v>1039887</v>
       </c>
       <c r="D24" s="9">
-        <v>1378</v>
+        <v>229375</v>
       </c>
       <c r="E24" s="11">
-        <v>10333</v>
+        <v>1681384</v>
       </c>
       <c r="F24" s="13">
-        <v>8080</v>
+        <v>1314936</v>
       </c>
       <c r="G24" s="15">
-        <v>2253</v>
+        <v>366449</v>
       </c>
       <c r="H24" s="17">
-        <v>1527</v>
+        <v>253066</v>
       </c>
       <c r="I24" s="19">
-        <v>5160</v>
+        <v>849227</v>
       </c>
       <c r="J24" s="21">
-        <v>-3633</v>
+        <v>-596162</v>
       </c>
       <c r="K24" s="23">
-        <v>468</v>
+        <v>76825</v>
       </c>
       <c r="L24" s="25">
-        <v>553</v>
+        <v>90374</v>
       </c>
       <c r="M24" s="27">
-        <v>-85</v>
+        <v>-13548</v>
       </c>
       <c r="N24" s="29">
-        <v>97</v>
+        <v>16105</v>
       </c>
       <c r="O24" s="31">
-        <v>112</v>
+        <v>18025</v>
       </c>
       <c r="P24" s="33">
-        <v>-15</v>
+        <v>-1920</v>
       </c>
       <c r="Q24" s="35">
-        <v>295</v>
+        <v>48663</v>
       </c>
       <c r="R24" s="37">
-        <v>550</v>
+        <v>89972</v>
       </c>
       <c r="S24" s="39">
-        <v>-254</v>
+        <v>-41309</v>
       </c>
       <c r="T24" s="41">
-        <v>4</v>
+        <v>650</v>
       </c>
       <c r="U24" s="43">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="V24" s="45">
-        <v>2</v>
+        <v>311</v>
       </c>
       <c r="W24" s="47">
-        <v>13</v>
+        <v>2259</v>
       </c>
       <c r="X24" s="49">
-        <v>2844</v>
+        <v>470674</v>
       </c>
       <c r="Y24" s="51">
-        <v>-2832</v>
+        <v>-468415</v>
       </c>
       <c r="Z24" s="53">
-        <v>520</v>
+        <v>87057</v>
       </c>
       <c r="AA24" s="55">
-        <v>629</v>
+        <v>102361</v>
       </c>
       <c r="AB24" s="57">
-        <v>-109</v>
+        <v>-15304</v>
       </c>
       <c r="AC24" s="59">
-        <v>130</v>
+        <v>21507</v>
       </c>
       <c r="AD24" s="61">
-        <v>470</v>
+        <v>77483</v>
       </c>
       <c r="AE24" s="63">
-        <v>-340</v>
+        <v>-55976</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4062,16 +4062,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>105</v>
+        <v>17016</v>
       </c>
       <c r="AJ24" s="73">
-        <v>103</v>
+        <v>16678</v>
       </c>
       <c r="AK24" s="75">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="AL24" s="77">
-        <v>19744</v>
+        <v>3220727</v>
       </c>
     </row>
     <row r="25">
@@ -4079,94 +4079,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>1368</v>
+        <v>262180</v>
       </c>
       <c r="C25" s="7">
-        <v>1925</v>
+        <v>365811</v>
       </c>
       <c r="D25" s="9">
-        <v>-557</v>
+        <v>-103630</v>
       </c>
       <c r="E25" s="11">
-        <v>4070</v>
+        <v>783451</v>
       </c>
       <c r="F25" s="13">
-        <v>3348</v>
+        <v>650182</v>
       </c>
       <c r="G25" s="15">
-        <v>721</v>
+        <v>133268</v>
       </c>
       <c r="H25" s="17">
-        <v>655</v>
+        <v>126663</v>
       </c>
       <c r="I25" s="19">
-        <v>822</v>
+        <v>156638</v>
       </c>
       <c r="J25" s="21">
-        <v>-167</v>
+        <v>-29975</v>
       </c>
       <c r="K25" s="23">
-        <v>326</v>
+        <v>62151</v>
       </c>
       <c r="L25" s="25">
-        <v>139</v>
+        <v>27028</v>
       </c>
       <c r="M25" s="27">
-        <v>186</v>
+        <v>35123</v>
       </c>
       <c r="N25" s="29">
-        <v>9</v>
+        <v>1779</v>
       </c>
       <c r="O25" s="31">
-        <v>57</v>
+        <v>10530</v>
       </c>
       <c r="P25" s="33">
-        <v>-48</v>
+        <v>-8751</v>
       </c>
       <c r="Q25" s="35">
-        <v>29</v>
+        <v>5998</v>
       </c>
       <c r="R25" s="37">
-        <v>209</v>
+        <v>39532</v>
       </c>
       <c r="S25" s="39">
-        <v>-179</v>
+        <v>-33534</v>
       </c>
       <c r="T25" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U25" s="43">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="V25" s="45">
-        <v>-1</v>
+        <v>-174</v>
       </c>
       <c r="W25" s="47">
-        <v>5</v>
+        <v>1080</v>
       </c>
       <c r="X25" s="49">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="Y25" s="51">
-        <v>3</v>
+        <v>828</v>
       </c>
       <c r="Z25" s="53">
-        <v>251</v>
+        <v>48795</v>
       </c>
       <c r="AA25" s="55">
-        <v>303</v>
+        <v>56961</v>
       </c>
       <c r="AB25" s="57">
-        <v>-51</v>
+        <v>-8167</v>
       </c>
       <c r="AC25" s="59">
-        <v>35</v>
+        <v>6858</v>
       </c>
       <c r="AD25" s="61">
-        <v>112</v>
+        <v>22158</v>
       </c>
       <c r="AE25" s="63">
-        <v>-77</v>
+        <v>-15300</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4178,16 +4178,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>32</v>
+        <v>6120</v>
       </c>
       <c r="AJ25" s="73">
-        <v>29</v>
+        <v>5783</v>
       </c>
       <c r="AK25" s="75">
-        <v>3</v>
+        <v>336</v>
       </c>
       <c r="AL25" s="77">
-        <v>6125</v>
+        <v>1178414</v>
       </c>
     </row>
     <row r="26">
@@ -4195,94 +4195,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>2056</v>
+        <v>452950</v>
       </c>
       <c r="C26" s="7">
-        <v>1560</v>
+        <v>340649</v>
       </c>
       <c r="D26" s="9">
-        <v>496</v>
+        <v>112302</v>
       </c>
       <c r="E26" s="11">
-        <v>4887</v>
+        <v>1070314</v>
       </c>
       <c r="F26" s="13">
-        <v>5431</v>
+        <v>1192887</v>
       </c>
       <c r="G26" s="15">
-        <v>-545</v>
+        <v>-122573</v>
       </c>
       <c r="H26" s="17">
-        <v>842</v>
+        <v>183585</v>
       </c>
       <c r="I26" s="19">
-        <v>786</v>
+        <v>171674</v>
       </c>
       <c r="J26" s="21">
-        <v>57</v>
+        <v>11911</v>
       </c>
       <c r="K26" s="23">
-        <v>247</v>
+        <v>53604</v>
       </c>
       <c r="L26" s="25">
-        <v>416</v>
+        <v>91649</v>
       </c>
       <c r="M26" s="27">
-        <v>-170</v>
+        <v>-38045</v>
       </c>
       <c r="N26" s="29">
-        <v>33</v>
+        <v>7353</v>
       </c>
       <c r="O26" s="31">
-        <v>39</v>
+        <v>8290</v>
       </c>
       <c r="P26" s="33">
-        <v>-6</v>
+        <v>-936</v>
       </c>
       <c r="Q26" s="35">
-        <v>218</v>
+        <v>46962</v>
       </c>
       <c r="R26" s="37">
-        <v>104</v>
+        <v>22507</v>
       </c>
       <c r="S26" s="39">
-        <v>114</v>
+        <v>24455</v>
       </c>
       <c r="T26" s="41">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="U26" s="43">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="V26" s="45">
-        <v>-1</v>
+        <v>-222</v>
       </c>
       <c r="W26" s="47">
-        <v>5</v>
+        <v>1053</v>
       </c>
       <c r="X26" s="49">
-        <v>3</v>
+        <v>617</v>
       </c>
       <c r="Y26" s="51">
-        <v>2</v>
+        <v>435</v>
       </c>
       <c r="Z26" s="53">
-        <v>271</v>
+        <v>59797</v>
       </c>
       <c r="AA26" s="55">
-        <v>83</v>
+        <v>18135</v>
       </c>
       <c r="AB26" s="57">
-        <v>188</v>
+        <v>41662</v>
       </c>
       <c r="AC26" s="59">
-        <v>68</v>
+        <v>14719</v>
       </c>
       <c r="AD26" s="61">
-        <v>139</v>
+        <v>30158</v>
       </c>
       <c r="AE26" s="63">
-        <v>-71</v>
+        <v>-15439</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4294,16 +4294,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>39</v>
+        <v>8634</v>
       </c>
       <c r="AJ26" s="73">
-        <v>48</v>
+        <v>10273</v>
       </c>
       <c r="AK26" s="75">
-        <v>-8</v>
+        <v>-1639</v>
       </c>
       <c r="AL26" s="77">
-        <v>7825</v>
+        <v>1715482</v>
       </c>
     </row>
     <row r="27">
@@ -4311,94 +4311,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>4282</v>
+        <v>903583</v>
       </c>
       <c r="C27" s="7">
-        <v>3391</v>
+        <v>717239</v>
       </c>
       <c r="D27" s="9">
-        <v>891</v>
+        <v>186344</v>
       </c>
       <c r="E27" s="11">
-        <v>7709</v>
+        <v>1640384</v>
       </c>
       <c r="F27" s="13">
-        <v>7645</v>
+        <v>1629082</v>
       </c>
       <c r="G27" s="15">
-        <v>64</v>
+        <v>11302</v>
       </c>
       <c r="H27" s="17">
-        <v>968</v>
+        <v>204410</v>
       </c>
       <c r="I27" s="19">
-        <v>1876</v>
+        <v>392370</v>
       </c>
       <c r="J27" s="21">
-        <v>-908</v>
+        <v>-187960</v>
       </c>
       <c r="K27" s="23">
-        <v>395</v>
+        <v>83306</v>
       </c>
       <c r="L27" s="25">
-        <v>457</v>
+        <v>96188</v>
       </c>
       <c r="M27" s="27">
-        <v>-63</v>
+        <v>-12882</v>
       </c>
       <c r="N27" s="29">
-        <v>56</v>
+        <v>11800</v>
       </c>
       <c r="O27" s="31">
-        <v>43</v>
+        <v>9014</v>
       </c>
       <c r="P27" s="33">
-        <v>13</v>
+        <v>2785</v>
       </c>
       <c r="Q27" s="35">
-        <v>89</v>
+        <v>18685</v>
       </c>
       <c r="R27" s="37">
-        <v>436</v>
+        <v>90872</v>
       </c>
       <c r="S27" s="39">
-        <v>-347</v>
+        <v>-72187</v>
       </c>
       <c r="T27" s="41">
-        <v>3</v>
+        <v>538</v>
       </c>
       <c r="U27" s="43">
-        <v>7</v>
+        <v>1425</v>
       </c>
       <c r="V27" s="45">
-        <v>-4</v>
+        <v>-887</v>
       </c>
       <c r="W27" s="47">
-        <v>5</v>
+        <v>1093</v>
       </c>
       <c r="X27" s="49">
-        <v>36</v>
+        <v>7373</v>
       </c>
       <c r="Y27" s="51">
-        <v>-30</v>
+        <v>-6280</v>
       </c>
       <c r="Z27" s="53">
-        <v>288</v>
+        <v>60705</v>
       </c>
       <c r="AA27" s="55">
-        <v>118</v>
+        <v>25118</v>
       </c>
       <c r="AB27" s="57">
-        <v>170</v>
+        <v>35587</v>
       </c>
       <c r="AC27" s="59">
-        <v>133</v>
+        <v>28283</v>
       </c>
       <c r="AD27" s="61">
-        <v>779</v>
+        <v>162379</v>
       </c>
       <c r="AE27" s="63">
-        <v>-646</v>
+        <v>-134096</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4410,16 +4410,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>58</v>
+        <v>12398</v>
       </c>
       <c r="AJ27" s="73">
-        <v>106</v>
+        <v>22084</v>
       </c>
       <c r="AK27" s="75">
-        <v>-48</v>
+        <v>-9685</v>
       </c>
       <c r="AL27" s="77">
-        <v>13018</v>
+        <v>2760774</v>
       </c>
     </row>
     <row r="28">
@@ -4427,94 +4427,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>3808</v>
+        <v>799815</v>
       </c>
       <c r="C28" s="7">
-        <v>2461</v>
+        <v>517053</v>
       </c>
       <c r="D28" s="9">
-        <v>1347</v>
+        <v>282762</v>
       </c>
       <c r="E28" s="11">
-        <v>10199</v>
+        <v>2134140</v>
       </c>
       <c r="F28" s="13">
-        <v>11758</v>
+        <v>2455818</v>
       </c>
       <c r="G28" s="15">
-        <v>-1559</v>
+        <v>-321678</v>
       </c>
       <c r="H28" s="17">
-        <v>1259</v>
+        <v>260574</v>
       </c>
       <c r="I28" s="19">
-        <v>1035</v>
+        <v>218980</v>
       </c>
       <c r="J28" s="21">
-        <v>223</v>
+        <v>41594</v>
       </c>
       <c r="K28" s="23">
-        <v>204</v>
+        <v>43719</v>
       </c>
       <c r="L28" s="25">
-        <v>404</v>
+        <v>84564</v>
       </c>
       <c r="M28" s="27">
-        <v>-200</v>
+        <v>-40845</v>
       </c>
       <c r="N28" s="29">
-        <v>62</v>
+        <v>12179</v>
       </c>
       <c r="O28" s="31">
-        <v>38</v>
+        <v>8061</v>
       </c>
       <c r="P28" s="33">
-        <v>24</v>
+        <v>4118</v>
       </c>
       <c r="Q28" s="35">
-        <v>471</v>
+        <v>95642</v>
       </c>
       <c r="R28" s="37">
-        <v>142</v>
+        <v>30317</v>
       </c>
       <c r="S28" s="39">
-        <v>329</v>
+        <v>65325</v>
       </c>
       <c r="T28" s="41">
         <v>0</v>
       </c>
       <c r="U28" s="43">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="V28" s="45">
-        <v>-1</v>
+        <v>-238</v>
       </c>
       <c r="W28" s="47">
-        <v>5</v>
+        <v>1013</v>
       </c>
       <c r="X28" s="49">
-        <v>3</v>
+        <v>598</v>
       </c>
       <c r="Y28" s="51">
-        <v>2</v>
+        <v>414</v>
       </c>
       <c r="Z28" s="53">
-        <v>352</v>
+        <v>74242</v>
       </c>
       <c r="AA28" s="55">
-        <v>192</v>
+        <v>40757</v>
       </c>
       <c r="AB28" s="57">
-        <v>160</v>
+        <v>33486</v>
       </c>
       <c r="AC28" s="59">
-        <v>165</v>
+        <v>33778</v>
       </c>
       <c r="AD28" s="61">
-        <v>255</v>
+        <v>54443</v>
       </c>
       <c r="AE28" s="63">
-        <v>-91</v>
+        <v>-20665</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4526,16 +4526,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>96</v>
+        <v>20080</v>
       </c>
       <c r="AJ28" s="73">
-        <v>108</v>
+        <v>22758</v>
       </c>
       <c r="AK28" s="75">
-        <v>-12</v>
+        <v>-2678</v>
       </c>
       <c r="AL28" s="77">
-        <v>15362</v>
+        <v>3214608</v>
       </c>
     </row>
     <row r="29">
@@ -4543,94 +4543,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>2047</v>
+        <v>329928</v>
       </c>
       <c r="C29" s="7">
-        <v>1640</v>
+        <v>251832</v>
       </c>
       <c r="D29" s="9">
-        <v>407</v>
+        <v>78097</v>
       </c>
       <c r="E29" s="11">
-        <v>8920</v>
+        <v>1412468</v>
       </c>
       <c r="F29" s="13">
-        <v>10965</v>
+        <v>1748444</v>
       </c>
       <c r="G29" s="15">
-        <v>-2045</v>
+        <v>-335976</v>
       </c>
       <c r="H29" s="17">
-        <v>2408</v>
+        <v>374835</v>
       </c>
       <c r="I29" s="19">
-        <v>725</v>
+        <v>109932</v>
       </c>
       <c r="J29" s="21">
-        <v>1682</v>
+        <v>264903</v>
       </c>
       <c r="K29" s="23">
-        <v>137</v>
+        <v>21773</v>
       </c>
       <c r="L29" s="25">
-        <v>251</v>
+        <v>38584</v>
       </c>
       <c r="M29" s="27">
-        <v>-114</v>
+        <v>-16812</v>
       </c>
       <c r="N29" s="29">
-        <v>156</v>
+        <v>24679</v>
       </c>
       <c r="O29" s="31">
-        <v>16</v>
+        <v>2537</v>
       </c>
       <c r="P29" s="33">
-        <v>140</v>
+        <v>22142</v>
       </c>
       <c r="Q29" s="35">
-        <v>811</v>
+        <v>123246</v>
       </c>
       <c r="R29" s="37">
-        <v>139</v>
+        <v>20802</v>
       </c>
       <c r="S29" s="39">
-        <v>672</v>
+        <v>102445</v>
       </c>
       <c r="T29" s="41">
-        <v>4</v>
+        <v>555</v>
       </c>
       <c r="U29" s="43">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="V29" s="45">
-        <v>2</v>
+        <v>360</v>
       </c>
       <c r="W29" s="47">
-        <v>7</v>
+        <v>1176</v>
       </c>
       <c r="X29" s="49">
-        <v>10</v>
+        <v>1522</v>
       </c>
       <c r="Y29" s="51">
-        <v>-3</v>
+        <v>-346</v>
       </c>
       <c r="Z29" s="53">
-        <v>1203</v>
+        <v>188943</v>
       </c>
       <c r="AA29" s="55">
-        <v>109</v>
+        <v>16346</v>
       </c>
       <c r="AB29" s="57">
-        <v>1094</v>
+        <v>172597</v>
       </c>
       <c r="AC29" s="59">
-        <v>91</v>
+        <v>14463</v>
       </c>
       <c r="AD29" s="61">
-        <v>199</v>
+        <v>29946</v>
       </c>
       <c r="AE29" s="63">
-        <v>-109</v>
+        <v>-15483</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4642,16 +4642,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>78</v>
+        <v>12392</v>
       </c>
       <c r="AJ29" s="73">
-        <v>122</v>
+        <v>19416</v>
       </c>
       <c r="AK29" s="75">
-        <v>-44</v>
+        <v>-7024</v>
       </c>
       <c r="AL29" s="77">
-        <v>13452</v>
+        <v>2129624</v>
       </c>
     </row>
     <row r="30">
@@ -4659,94 +4659,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="6">
-        <v>1179</v>
+        <v>177544</v>
       </c>
       <c r="C30" s="8">
-        <v>3860</v>
+        <v>627047</v>
       </c>
       <c r="D30" s="10">
-        <v>-2681</v>
+        <v>-449504</v>
       </c>
       <c r="E30" s="12">
-        <v>23652</v>
+        <v>3713583</v>
       </c>
       <c r="F30" s="14">
-        <v>21379</v>
+        <v>3323200</v>
       </c>
       <c r="G30" s="16">
-        <v>2273</v>
+        <v>390383</v>
       </c>
       <c r="H30" s="18">
-        <v>669</v>
+        <v>105679</v>
       </c>
       <c r="I30" s="20">
-        <v>217</v>
+        <v>37386</v>
       </c>
       <c r="J30" s="22">
-        <v>452</v>
+        <v>68293</v>
       </c>
       <c r="K30" s="24">
-        <v>67</v>
+        <v>10456</v>
       </c>
       <c r="L30" s="26">
-        <v>86</v>
+        <v>14798</v>
       </c>
       <c r="M30" s="28">
-        <v>-19</v>
+        <v>-4343</v>
       </c>
       <c r="N30" s="30">
-        <v>48</v>
+        <v>7071</v>
       </c>
       <c r="O30" s="32">
-        <v>3</v>
+        <v>550</v>
       </c>
       <c r="P30" s="34">
-        <v>45</v>
+        <v>6521</v>
       </c>
       <c r="Q30" s="36">
-        <v>78</v>
+        <v>11814</v>
       </c>
       <c r="R30" s="38">
-        <v>18</v>
+        <v>3044</v>
       </c>
       <c r="S30" s="40">
-        <v>60</v>
+        <v>8770</v>
       </c>
       <c r="T30" s="42">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="U30" s="44">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="V30" s="46">
-        <v>-1</v>
+        <v>-115</v>
       </c>
       <c r="W30" s="48">
-        <v>5</v>
+        <v>881</v>
       </c>
       <c r="X30" s="50">
-        <v>19</v>
+        <v>3389</v>
       </c>
       <c r="Y30" s="52">
-        <v>-13</v>
+        <v>-2509</v>
       </c>
       <c r="Z30" s="54">
-        <v>410</v>
+        <v>66212</v>
       </c>
       <c r="AA30" s="56">
-        <v>18</v>
+        <v>2694</v>
       </c>
       <c r="AB30" s="58">
-        <v>392</v>
+        <v>63517</v>
       </c>
       <c r="AC30" s="60">
-        <v>60</v>
+        <v>9130</v>
       </c>
       <c r="AD30" s="62">
-        <v>72</v>
+        <v>12678</v>
       </c>
       <c r="AE30" s="64">
-        <v>-12</v>
+        <v>-3548</v>
       </c>
       <c r="AF30" s="66">
         <v>0</v>
@@ -4758,16 +4758,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="72">
-        <v>228</v>
+        <v>34978</v>
       </c>
       <c r="AJ30" s="74">
-        <v>273</v>
+        <v>44151</v>
       </c>
       <c r="AK30" s="76">
-        <v>-45</v>
+        <v>-9173</v>
       </c>
       <c r="AL30" s="78">
-        <v>25728</v>
+        <v>4031784</v>
       </c>
     </row>
   </sheetData>
